--- a/241_テーブル関連図.xlsx
+++ b/241_テーブル関連図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="75" yWindow="0" windowWidth="11655" windowHeight="6195" tabRatio="635"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="11655" windowHeight="6195" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="241_テーブル関連図" sheetId="29" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -739,80 +739,11 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -861,6 +792,24 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -870,6 +819,9 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -879,11 +831,59 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2366,8 +2366,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2377,7 +2377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4484457" y="1200150"/>
-          <a:ext cx="1301981" cy="1147763"/>
+          <a:ext cx="1301981" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,6 +2439,37 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>StudentNumber(P)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ShcoolYear</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4186,13 +4217,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>80211</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>45117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>10027</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>130341</xdr:rowOff>
@@ -4376,15 +4407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>89711</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74463</xdr:rowOff>
+      <xdr:colOff>46848</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>90963</xdr:colOff>
+      <xdr:colOff>48100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>4043</xdr:rowOff>
+      <xdr:rowOff>123105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4393,7 +4424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4890311" y="2422376"/>
+          <a:off x="4847448" y="2541438"/>
           <a:ext cx="172702" cy="253430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4760,15 +4791,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>42451</xdr:colOff>
+      <xdr:colOff>109126</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>41392</xdr:rowOff>
+      <xdr:rowOff>50917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>26264</xdr:colOff>
+      <xdr:colOff>92939</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131863</xdr:rowOff>
+      <xdr:rowOff>141388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4777,7 +4808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4500151" y="2713155"/>
+          <a:off x="4566826" y="2722680"/>
           <a:ext cx="155263" cy="252396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4825,16 +4856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>260684</xdr:colOff>
+      <xdr:colOff>8271</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85224</xdr:rowOff>
+      <xdr:rowOff>109037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4843,8 +4874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="2595563"/>
-          <a:ext cx="255921" cy="251911"/>
+          <a:off x="4124325" y="1562101"/>
+          <a:ext cx="170196" cy="247149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5554,11 +5585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="28" width="2.3984375" style="5" customWidth="1"/>
     <col min="29" max="61" width="2.3984375" style="4" customWidth="1"/>
@@ -5566,208 +5597,208 @@
     <col min="69" max="16384" width="2.46484375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="52" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="87" t="s">
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="63" t="s">
+      <c r="AT1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="90" t="s">
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="63" t="s">
+      <c r="AY1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="71"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="47"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="55" t="s">
+    <row r="2" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="74"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="50"/>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="78" t="s">
+    <row r="3" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="77"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="53"/>
     </row>
-    <row r="4" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="6.6" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5816,9 +5847,9 @@
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
     </row>
-    <row r="5" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
+    <row r="5" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
@@ -5877,7 +5908,7 @@
       <c r="BF5" s="11"/>
       <c r="BG5" s="13"/>
     </row>
-    <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -5926,7 +5957,7 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="8"/>
     </row>
-    <row r="7" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -5975,7 +6006,7 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="8"/>
     </row>
-    <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -6024,7 +6055,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="8"/>
     </row>
-    <row r="9" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -6073,7 +6104,7 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="8"/>
     </row>
-    <row r="10" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -6119,7 +6150,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="8"/>
     </row>
-    <row r="11" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -6165,7 +6196,7 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="8"/>
     </row>
-    <row r="12" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
@@ -6173,7 +6204,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="34"/>
-      <c r="U12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="14"/>
       <c r="X12" s="15"/>
@@ -6213,7 +6244,7 @@
       <c r="BF12" s="7"/>
       <c r="BG12" s="8"/>
     </row>
-    <row r="13" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="K13" s="14"/>
       <c r="L13" s="19"/>
       <c r="M13" s="14"/>
@@ -6261,7 +6292,7 @@
       <c r="BF13" s="7"/>
       <c r="BG13" s="8"/>
     </row>
-    <row r="14" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="K14" s="14"/>
       <c r="L14" s="19"/>
       <c r="M14" s="14"/>
@@ -6309,7 +6340,7 @@
       <c r="BF14" s="7"/>
       <c r="BG14" s="8"/>
     </row>
-    <row r="15" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="L15" s="37"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -6325,14 +6356,14 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="28"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="26"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
@@ -6359,7 +6390,7 @@
       <c r="BF15" s="7"/>
       <c r="BG15" s="8"/>
     </row>
-    <row r="16" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="L16" s="37"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -6375,14 +6406,14 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="28"/>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
@@ -6409,7 +6440,7 @@
       <c r="BF16" s="7"/>
       <c r="BG16" s="8"/>
     </row>
-    <row r="17" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="L17" s="31"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -6459,7 +6490,7 @@
       <c r="BF17" s="7"/>
       <c r="BG17" s="8"/>
     </row>
-    <row r="18" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -6508,7 +6539,7 @@
       <c r="BF18" s="7"/>
       <c r="BG18" s="8"/>
     </row>
-    <row r="19" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
@@ -6557,7 +6588,7 @@
       <c r="BF19" s="7"/>
       <c r="BG19" s="8"/>
     </row>
-    <row r="20" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -6605,7 +6636,7 @@
       <c r="BF20" s="7"/>
       <c r="BG20" s="8"/>
     </row>
-    <row r="21" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -6652,7 +6683,7 @@
       <c r="BF21" s="7"/>
       <c r="BG21" s="8"/>
     </row>
-    <row r="22" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="M22" s="15"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
@@ -6697,7 +6728,7 @@
       <c r="BF22" s="7"/>
       <c r="BG22" s="8"/>
     </row>
-    <row r="23" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
@@ -6743,7 +6774,7 @@
       <c r="BF23" s="7"/>
       <c r="BG23" s="8"/>
     </row>
-    <row r="24" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M24" s="15"/>
       <c r="N24" s="19"/>
       <c r="O24" s="14"/>
@@ -6790,7 +6821,7 @@
       <c r="BF24" s="7"/>
       <c r="BG24" s="8"/>
     </row>
-    <row r="25" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -6846,7 +6877,7 @@
       <c r="BF25" s="7"/>
       <c r="BG25" s="8"/>
     </row>
-    <row r="26" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="N26" s="19"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
@@ -6891,7 +6922,7 @@
       <c r="BF26" s="7"/>
       <c r="BG26" s="8"/>
     </row>
-    <row r="27" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="N27" s="19"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -6930,7 +6961,7 @@
       <c r="BF27" s="7"/>
       <c r="BG27" s="8"/>
     </row>
-    <row r="28" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="N28" s="19"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -6969,7 +7000,7 @@
       <c r="BF28" s="7"/>
       <c r="BG28" s="8"/>
     </row>
-    <row r="29" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M29" s="15"/>
       <c r="N29" s="37"/>
       <c r="O29" s="7"/>
@@ -7010,7 +7041,7 @@
       <c r="BF29" s="7"/>
       <c r="BG29" s="8"/>
     </row>
-    <row r="30" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M30" s="15"/>
       <c r="N30" s="37"/>
       <c r="O30" s="7"/>
@@ -7052,7 +7083,7 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="8"/>
     </row>
-    <row r="31" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="M31" s="15"/>
       <c r="N31" s="31"/>
       <c r="O31" s="32"/>
@@ -7101,7 +7132,7 @@
       <c r="BF31" s="7"/>
       <c r="BG31" s="8"/>
     </row>
-    <row r="32" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="B32" s="14"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
@@ -7159,7 +7190,7 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="8"/>
     </row>
-    <row r="33" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B33" s="14"/>
       <c r="C33" s="19"/>
       <c r="D33" s="14"/>
@@ -7217,7 +7248,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="8"/>
     </row>
-    <row r="34" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B34" s="14"/>
       <c r="C34" s="19"/>
       <c r="D34" s="14"/>
@@ -7275,7 +7306,7 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="8"/>
     </row>
-    <row r="35" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B35" s="14"/>
       <c r="C35" s="19"/>
       <c r="D35" s="14"/>
@@ -7323,7 +7354,7 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="8"/>
     </row>
-    <row r="36" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B36" s="14"/>
       <c r="C36" s="19"/>
       <c r="D36" s="14"/>
@@ -7371,7 +7402,7 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="8"/>
     </row>
-    <row r="37" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="B37" s="14"/>
       <c r="C37" s="19"/>
       <c r="D37" s="14"/>
@@ -7419,7 +7450,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="8"/>
     </row>
-    <row r="38" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B38" s="14"/>
       <c r="C38" s="19"/>
       <c r="D38" s="14"/>
@@ -7466,7 +7497,7 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="8"/>
     </row>
-    <row r="39" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="B39" s="15"/>
       <c r="C39" s="29"/>
       <c r="D39" s="25"/>
@@ -7514,7 +7545,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="8"/>
     </row>
-    <row r="40" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
       <c r="B40" s="25"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
@@ -7562,7 +7593,7 @@
       <c r="BF40" s="7"/>
       <c r="BG40" s="8"/>
     </row>
-    <row r="41" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -7611,7 +7642,7 @@
       <c r="BF41" s="7"/>
       <c r="BG41" s="8"/>
     </row>
-    <row r="42" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
@@ -7650,7 +7681,7 @@
       <c r="BF42" s="7"/>
       <c r="BG42" s="8"/>
     </row>
-    <row r="43" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
@@ -7689,7 +7720,7 @@
       <c r="BF43" s="7"/>
       <c r="BG43" s="8"/>
     </row>
-    <row r="44" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
@@ -7728,7 +7759,7 @@
       <c r="BF44" s="9"/>
       <c r="BG44" s="10"/>
     </row>
-    <row r="45" spans="2:59" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:59" ht="12.95" customHeight="1">
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
@@ -7751,7 +7782,7 @@
       <c r="AP45" s="25"/>
       <c r="AQ45" s="25"/>
     </row>
-    <row r="46" spans="2:59" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:59" ht="12.95" customHeight="1">
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
@@ -7774,7 +7805,7 @@
       <c r="AP46" s="25"/>
       <c r="AQ46" s="25"/>
     </row>
-    <row r="47" spans="2:59" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:59" ht="12.95" customHeight="1">
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
@@ -7797,7 +7828,7 @@
       <c r="AP47" s="25"/>
       <c r="AQ47" s="25"/>
     </row>
-    <row r="48" spans="2:59" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:59" ht="12.95" customHeight="1">
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
@@ -7820,7 +7851,7 @@
       <c r="AP48" s="25"/>
       <c r="AQ48" s="25"/>
     </row>
-    <row r="49" spans="13:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:43" ht="12.95" customHeight="1">
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>

--- a/241_テーブル関連図.xlsx
+++ b/241_テーブル関連図.xlsx
@@ -1843,175 +1843,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>10623</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>149701</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6697173" y="3141964"/>
-          <a:ext cx="996328" cy="491823"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Times</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>時間表</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>13191</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6699741" y="3605213"/>
-          <a:ext cx="986934" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TimeCode(P)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>UseTime</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
       <xdr:colOff>19638</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12572</xdr:rowOff>
@@ -4117,56 +3948,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>59657</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89987</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5717507" y="3409450"/>
-          <a:ext cx="597568" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>169584</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -4469,69 +4250,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>79708</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137610</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6253162" y="3048001"/>
-          <a:ext cx="170196" cy="247147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>107616</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -4678,72 +4396,6 @@
         <a:xfrm>
           <a:off x="5721684" y="4467561"/>
           <a:ext cx="168358" cy="241968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>80544</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>77452</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107197</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5738394" y="3508543"/>
-          <a:ext cx="168358" cy="241967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5585,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1"/>
@@ -6588,7 +6240,7 @@
       <c r="BF19" s="7"/>
       <c r="BG19" s="8"/>
     </row>
-    <row r="20" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -6663,12 +6315,12 @@
       <c r="AK21" s="15"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="18"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
@@ -6708,12 +6360,12 @@
       <c r="AK22" s="15"/>
       <c r="AL22" s="14"/>
       <c r="AM22" s="14"/>
-      <c r="AN22" s="19"/>
+      <c r="AN22" s="14"/>
       <c r="AO22" s="14"/>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
-      <c r="AS22" s="20"/>
+      <c r="AS22" s="14"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
@@ -6754,12 +6406,12 @@
       <c r="AK23" s="15"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
-      <c r="AN23" s="19"/>
+      <c r="AN23" s="14"/>
       <c r="AO23" s="14"/>
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="20"/>
+      <c r="AS23" s="14"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
@@ -6800,12 +6452,12 @@
       <c r="AK24" s="15"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
-      <c r="AN24" s="19"/>
+      <c r="AN24" s="14"/>
       <c r="AO24" s="14"/>
       <c r="AP24" s="14"/>
       <c r="AQ24" s="14"/>
       <c r="AR24" s="14"/>
-      <c r="AS24" s="20"/>
+      <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
@@ -6856,12 +6508,12 @@
       <c r="AK25" s="15"/>
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
-      <c r="AN25" s="29"/>
+      <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
       <c r="AP25" s="25"/>
       <c r="AQ25" s="25"/>
       <c r="AR25" s="25"/>
-      <c r="AS25" s="20"/>
+      <c r="AS25" s="14"/>
       <c r="AT25" s="14"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
@@ -6877,7 +6529,7 @@
       <c r="BF25" s="7"/>
       <c r="BG25" s="8"/>
     </row>
-    <row r="26" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:59" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="N26" s="19"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
@@ -6902,12 +6554,12 @@
       <c r="AK26" s="15"/>
       <c r="AL26" s="14"/>
       <c r="AM26" s="15"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="36"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>

--- a/241_テーブル関連図.xlsx
+++ b/241_テーブル関連図.xlsx
@@ -919,23 +919,113 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -987,21 +1077,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1011,9 +1086,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,94 +1095,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2675,203 +2675,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="53" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="41" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="44" t="s">
+      <c r="AT1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="50" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="25"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="56"/>
     </row>
     <row r="2" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="68" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="28"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="59"/>
     </row>
     <row r="3" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="32" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="31"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="62"/>
     </row>
     <row r="4" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2923,8 +2923,8 @@
       <c r="BP4" s="5"/>
     </row>
     <row r="5" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -2984,23 +2984,23 @@
       <c r="BG5" s="16"/>
     </row>
     <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="84"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -3010,18 +3010,18 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="77" t="s">
+      <c r="Y6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="84"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="24"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
@@ -3049,23 +3049,23 @@
       <c r="BG6" s="8"/>
     </row>
     <row r="7" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -3075,18 +3075,18 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="85" t="s">
+      <c r="Y7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="83"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="23"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
@@ -3114,14 +3114,14 @@
       <c r="BG7" s="8"/>
     </row>
     <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="12"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="7"/>
@@ -3130,7 +3130,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="80"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="7" t="s">
         <v>49</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="79" t="s">
+      <c r="Y8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="Z8" s="7"/>
@@ -3153,7 +3153,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="80"/>
+      <c r="AH8" s="20"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
@@ -3181,14 +3181,14 @@
       <c r="BG8" s="8"/>
     </row>
     <row r="9" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="7"/>
@@ -3197,7 +3197,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="80"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -3207,7 +3207,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="79" t="s">
+      <c r="Y9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="Z9" s="7"/>
@@ -3218,7 +3218,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="80"/>
+      <c r="AH9" s="20"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
@@ -3246,21 +3246,21 @@
       <c r="BG9" s="8"/>
     </row>
     <row r="10" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="80"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -3272,7 +3272,7 @@
       <c r="X10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="79" t="s">
+      <c r="Y10" s="19" t="s">
         <v>21</v>
       </c>
       <c r="Z10" s="7"/>
@@ -3283,7 +3283,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="80"/>
+      <c r="AH10" s="20"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
@@ -3311,21 +3311,21 @@
       <c r="BG10" s="8"/>
     </row>
     <row r="11" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -3335,7 +3335,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="19" t="s">
         <v>22</v>
       </c>
       <c r="Z11" s="7"/>
@@ -3346,7 +3346,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="80"/>
+      <c r="AH11" s="20"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -3374,8 +3374,8 @@
       <c r="BG11" s="8"/>
     </row>
     <row r="12" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
       <c r="E12" s="7"/>
@@ -3400,7 +3400,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="79" t="s">
+      <c r="Y12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Z12" s="7"/>
@@ -3411,7 +3411,7 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="80"/>
+      <c r="AH12" s="20"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
@@ -3439,8 +3439,8 @@
       <c r="BG12" s="8"/>
     </row>
     <row r="13" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -3463,7 +3463,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="79" t="s">
+      <c r="Y13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Z13" s="7"/>
@@ -3474,7 +3474,7 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="80"/>
+      <c r="AH13" s="20"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -3502,8 +3502,8 @@
       <c r="BG13" s="8"/>
     </row>
     <row r="14" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
@@ -3526,18 +3526,18 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="81" t="s">
+      <c r="Y14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="83"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="23"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
@@ -3565,8 +3565,8 @@
       <c r="BG14" s="8"/>
     </row>
     <row r="15" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3628,8 +3628,8 @@
       <c r="BG15" s="8"/>
     </row>
     <row r="16" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3689,8 +3689,8 @@
       <c r="BG16" s="8"/>
     </row>
     <row r="17" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3750,8 +3750,8 @@
       <c r="BG17" s="8"/>
     </row>
     <row r="18" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3815,23 +3815,23 @@
       <c r="BG18" s="8"/>
     </row>
     <row r="19" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="84"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -3841,18 +3841,18 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="77" t="s">
+      <c r="Y19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="84"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="24"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
@@ -3873,23 +3873,23 @@
       <c r="BG19" s="8"/>
     </row>
     <row r="20" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="83"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -3899,18 +3899,18 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="85" t="s">
+      <c r="Y20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="83"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="23"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
@@ -3931,14 +3931,14 @@
       <c r="BG20" s="8"/>
     </row>
     <row r="21" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="7"/>
@@ -3947,7 +3947,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="80"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -3957,7 +3957,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="79" t="s">
+      <c r="Y21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="Z21" s="7"/>
@@ -3968,19 +3968,19 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="80"/>
+      <c r="AH21" s="20"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AM21" s="77" t="s">
+      <c r="AM21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="84"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="24"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
@@ -3997,14 +3997,14 @@
       <c r="BG21" s="8"/>
     </row>
     <row r="22" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="7"/>
@@ -4013,7 +4013,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="80"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="7" t="s">
         <v>48</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="79" t="s">
+      <c r="Y22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="Z22" s="7"/>
@@ -4036,19 +4036,19 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="80"/>
+      <c r="AH22" s="20"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AM22" s="85" t="s">
+      <c r="AM22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="83"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="23"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
@@ -4065,14 +4065,14 @@
       <c r="BG22" s="8"/>
     </row>
     <row r="23" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="7"/>
@@ -4081,7 +4081,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="80"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -4091,7 +4091,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="79" t="s">
+      <c r="Y23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="Z23" s="7"/>
@@ -4102,14 +4102,14 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="80"/>
+      <c r="AH23" s="20"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AM23" s="79" t="s">
+      <c r="AM23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AN23" s="7"/>
@@ -4117,7 +4117,7 @@
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
-      <c r="AS23" s="80"/>
+      <c r="AS23" s="20"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
@@ -4134,14 +4134,14 @@
       <c r="BG23" s="8"/>
     </row>
     <row r="24" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="7"/>
@@ -4150,7 +4150,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="80"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -4162,7 +4162,7 @@
       <c r="X24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y24" s="79" t="s">
+      <c r="Y24" s="19" t="s">
         <v>11</v>
       </c>
       <c r="Z24" s="7"/>
@@ -4173,11 +4173,11 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
-      <c r="AH24" s="80"/>
+      <c r="AH24" s="20"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AM24" s="79" t="s">
+      <c r="AM24" s="19" t="s">
         <v>38</v>
       </c>
       <c r="AN24" s="7"/>
@@ -4185,7 +4185,7 @@
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
-      <c r="AS24" s="80"/>
+      <c r="AS24" s="20"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
@@ -4202,21 +4202,21 @@
       <c r="BG24" s="8"/>
     </row>
     <row r="25" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="79"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="80"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -4226,7 +4226,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="79" t="s">
+      <c r="Y25" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Z25" s="7"/>
@@ -4237,20 +4237,20 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="80"/>
+      <c r="AH25" s="20"/>
       <c r="AI25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="79"/>
+      <c r="AM25" s="19"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
-      <c r="AS25" s="80"/>
+      <c r="AS25" s="20"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
@@ -4267,21 +4267,21 @@
       <c r="BG25" s="8"/>
     </row>
     <row r="26" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="83"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -4291,7 +4291,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="79" t="s">
+      <c r="Y26" s="19" t="s">
         <v>13</v>
       </c>
       <c r="Z26" s="7"/>
@@ -4302,18 +4302,18 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="80"/>
+      <c r="AH26" s="20"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="83"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="23"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
@@ -4330,8 +4330,8 @@
       <c r="BG26" s="8"/>
     </row>
     <row r="27" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4354,7 +4354,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="79" t="s">
+      <c r="Y27" s="19" t="s">
         <v>14</v>
       </c>
       <c r="Z27" s="7"/>
@@ -4365,7 +4365,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="80"/>
+      <c r="AH27" s="20"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
@@ -4393,8 +4393,8 @@
       <c r="BG27" s="8"/>
     </row>
     <row r="28" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4417,7 +4417,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="79" t="s">
+      <c r="Y28" s="19" t="s">
         <v>15</v>
       </c>
       <c r="Z28" s="7"/>
@@ -4428,7 +4428,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
-      <c r="AH28" s="80"/>
+      <c r="AH28" s="20"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
@@ -4456,8 +4456,8 @@
       <c r="BG28" s="8"/>
     </row>
     <row r="29" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4480,7 +4480,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="79" t="s">
+      <c r="Y29" s="19" t="s">
         <v>16</v>
       </c>
       <c r="Z29" s="7"/>
@@ -4491,7 +4491,7 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="80"/>
+      <c r="AH29" s="20"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
@@ -4519,8 +4519,8 @@
       <c r="BG29" s="8"/>
     </row>
     <row r="30" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="7"/>
       <c r="D30" s="11"/>
       <c r="E30" s="7"/>
@@ -4543,7 +4543,7 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="79"/>
+      <c r="Y30" s="19"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4552,7 +4552,7 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="80"/>
+      <c r="AH30" s="20"/>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
@@ -4580,8 +4580,8 @@
       <c r="BG30" s="8"/>
     </row>
     <row r="31" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="7"/>
       <c r="D31" s="13"/>
       <c r="E31" s="7"/>
@@ -4596,16 +4596,16 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="83"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
@@ -4633,8 +4633,8 @@
       <c r="BG31" s="8"/>
     </row>
     <row r="32" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="7"/>
       <c r="D32" s="13"/>
       <c r="E32" s="7"/>
@@ -4688,23 +4688,23 @@
       <c r="BG32" s="8"/>
     </row>
     <row r="33" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="84"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="24"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -4751,23 +4751,23 @@
       <c r="BG33" s="8"/>
     </row>
     <row r="34" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="83"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -4814,14 +4814,14 @@
       <c r="BG34" s="8"/>
     </row>
     <row r="35" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="79" t="s">
+      <c r="H35" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I35" s="7"/>
@@ -4830,7 +4830,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="80"/>
+      <c r="O35" s="20"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4877,14 +4877,14 @@
       <c r="BG35" s="8"/>
     </row>
     <row r="36" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="19" t="s">
         <v>42</v>
       </c>
       <c r="I36" s="7"/>
@@ -4893,7 +4893,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="80"/>
+      <c r="O36" s="20"/>
       <c r="P36" s="7" t="s">
         <v>45</v>
       </c>
@@ -4942,14 +4942,14 @@
       <c r="BG36" s="8"/>
     </row>
     <row r="37" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="7"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="79" t="s">
+      <c r="H37" s="19" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="7"/>
@@ -4958,7 +4958,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="80"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -5005,21 +5005,21 @@
       <c r="BG37" s="8"/>
     </row>
     <row r="38" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="7"/>
       <c r="D38" s="13"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="79"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="80"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -5066,21 +5066,21 @@
       <c r="BG38" s="8"/>
     </row>
     <row r="39" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="7"/>
       <c r="D39" s="13"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="83"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -5127,8 +5127,8 @@
       <c r="BG39" s="8"/>
     </row>
     <row r="40" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5188,8 +5188,8 @@
       <c r="BG40" s="8"/>
     </row>
     <row r="41" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5249,8 +5249,8 @@
       <c r="BG41" s="8"/>
     </row>
     <row r="42" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -5310,8 +5310,8 @@
       <c r="BG42" s="8"/>
     </row>
     <row r="43" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -5370,8 +5370,8 @@
       <c r="BG43" s="8"/>
     </row>
     <row r="44" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -5432,11 +5432,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T3"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="AY1:BB2"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="BC1:BG3"/>
     <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="U2:AD3"/>
@@ -5446,46 +5481,11 @@
     <mergeCell ref="AX1:AX3"/>
     <mergeCell ref="AE1:AR1"/>
     <mergeCell ref="AE2:AR3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T3"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="AY1:BB2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.70866141732283472" bottom="0.39370078740157483" header="0.82677165354330717" footer="0.19685039370078741"/>

--- a/241_テーブル関連図.xlsx
+++ b/241_テーブル関連図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>システム名</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>StudentCode(F)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>RoomCode(F)</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -105,10 +101,6 @@
   </si>
   <si>
     <t>LeavingTime</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>EndFlag</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -309,6 +301,10 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>StudentCode(PF)</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
@@ -952,80 +948,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1077,6 +1016,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1086,6 +1040,9 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,23 +1052,62 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2663,7 +2659,7 @@
   <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2675,203 +2671,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="37" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="72" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="76" t="s">
+      <c r="AT1" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="56"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="36"/>
     </row>
     <row r="2" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="59"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="39"/>
     </row>
     <row r="3" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="63" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="62"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="42"/>
     </row>
     <row r="4" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2923,8 +2919,8 @@
       <c r="BP4" s="5"/>
     </row>
     <row r="5" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -2984,15 +2980,15 @@
       <c r="BG5" s="16"/>
     </row>
     <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -3011,7 +3007,7 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
@@ -3049,15 +3045,15 @@
       <c r="BG6" s="8"/>
     </row>
     <row r="7" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -3076,7 +3072,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
@@ -3114,15 +3110,15 @@
       <c r="BG7" s="8"/>
     </row>
     <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3132,7 +3128,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="20"/>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -3143,7 +3139,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -3181,15 +3177,15 @@
       <c r="BG8" s="8"/>
     </row>
     <row r="9" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3208,7 +3204,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -3246,8 +3242,8 @@
       <c r="BG9" s="8"/>
     </row>
     <row r="10" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3270,10 +3266,10 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -3311,8 +3307,8 @@
       <c r="BG10" s="8"/>
     </row>
     <row r="11" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3336,7 +3332,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -3374,8 +3370,8 @@
       <c r="BG11" s="8"/>
     </row>
     <row r="12" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
       <c r="E12" s="7"/>
@@ -3386,7 +3382,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3401,7 +3397,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -3439,8 +3435,8 @@
       <c r="BG12" s="8"/>
     </row>
     <row r="13" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -3464,7 +3460,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -3502,8 +3498,8 @@
       <c r="BG13" s="8"/>
     </row>
     <row r="14" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
@@ -3527,7 +3523,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
@@ -3565,8 +3561,8 @@
       <c r="BG14" s="8"/>
     </row>
     <row r="15" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3594,7 +3590,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -3628,8 +3624,8 @@
       <c r="BG15" s="8"/>
     </row>
     <row r="16" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3689,8 +3685,8 @@
       <c r="BG16" s="8"/>
     </row>
     <row r="17" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3750,8 +3746,8 @@
       <c r="BG17" s="8"/>
     </row>
     <row r="18" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3761,7 +3757,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -3783,7 +3779,7 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -3815,15 +3811,15 @@
       <c r="BG18" s="8"/>
     </row>
     <row r="19" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3873,15 +3869,15 @@
       <c r="BG19" s="8"/>
     </row>
     <row r="20" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -3931,15 +3927,15 @@
       <c r="BG20" s="8"/>
     </row>
     <row r="21" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3958,7 +3954,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="19" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3973,7 +3969,7 @@
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AM21" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
@@ -3997,15 +3993,15 @@
       <c r="BG21" s="8"/>
     </row>
     <row r="22" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -4015,7 +4011,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="20"/>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -4026,7 +4022,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -4041,7 +4037,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AM22" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AN22" s="22"/>
       <c r="AO22" s="22"/>
@@ -4065,15 +4061,15 @@
       <c r="BG22" s="8"/>
     </row>
     <row r="23" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -4092,7 +4088,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -4107,10 +4103,10 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AM23" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
@@ -4134,15 +4130,15 @@
       <c r="BG23" s="8"/>
     </row>
     <row r="24" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -4160,10 +4156,10 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -4178,7 +4174,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
       <c r="AM24" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
@@ -4202,8 +4198,8 @@
       <c r="BG24" s="8"/>
     </row>
     <row r="25" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="7"/>
@@ -4227,7 +4223,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -4239,7 +4235,7 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -4267,8 +4263,8 @@
       <c r="BG25" s="8"/>
     </row>
     <row r="26" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="7"/>
       <c r="D26" s="13"/>
       <c r="E26" s="7"/>
@@ -4292,7 +4288,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -4330,8 +4326,8 @@
       <c r="BG26" s="8"/>
     </row>
     <row r="27" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4355,7 +4351,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -4393,8 +4389,8 @@
       <c r="BG27" s="8"/>
     </row>
     <row r="28" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4418,7 +4414,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -4456,8 +4452,8 @@
       <c r="BG28" s="8"/>
     </row>
     <row r="29" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4480,9 +4476,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y29" s="19"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -4519,8 +4513,8 @@
       <c r="BG29" s="8"/>
     </row>
     <row r="30" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="7"/>
       <c r="D30" s="11"/>
       <c r="E30" s="7"/>
@@ -4580,8 +4574,8 @@
       <c r="BG30" s="8"/>
     </row>
     <row r="31" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7"/>
       <c r="D31" s="13"/>
       <c r="E31" s="7"/>
@@ -4633,8 +4627,8 @@
       <c r="BG31" s="8"/>
     </row>
     <row r="32" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7"/>
       <c r="D32" s="13"/>
       <c r="E32" s="7"/>
@@ -4654,7 +4648,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -4688,15 +4682,15 @@
       <c r="BG32" s="8"/>
     </row>
     <row r="33" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -4751,15 +4745,15 @@
       <c r="BG33" s="8"/>
     </row>
     <row r="34" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -4814,15 +4808,15 @@
       <c r="BG34" s="8"/>
     </row>
     <row r="35" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -4877,15 +4871,15 @@
       <c r="BG35" s="8"/>
     </row>
     <row r="36" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -4895,7 +4889,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="20"/>
       <c r="P36" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4942,15 +4936,15 @@
       <c r="BG36" s="8"/>
     </row>
     <row r="37" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -5005,8 +4999,8 @@
       <c r="BG37" s="8"/>
     </row>
     <row r="38" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7"/>
       <c r="D38" s="13"/>
       <c r="E38" s="7"/>
@@ -5066,8 +5060,8 @@
       <c r="BG38" s="8"/>
     </row>
     <row r="39" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7"/>
       <c r="D39" s="13"/>
       <c r="E39" s="7"/>
@@ -5127,8 +5121,8 @@
       <c r="BG39" s="8"/>
     </row>
     <row r="40" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5188,8 +5182,8 @@
       <c r="BG40" s="8"/>
     </row>
     <row r="41" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5249,8 +5243,8 @@
       <c r="BG41" s="8"/>
     </row>
     <row r="42" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -5310,8 +5304,8 @@
       <c r="BG42" s="8"/>
     </row>
     <row r="43" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -5370,8 +5364,8 @@
       <c r="BG43" s="8"/>
     </row>
     <row r="44" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -5432,46 +5426,11 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T3"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="AY1:BB2"/>
     <mergeCell ref="BC1:BG3"/>
     <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="U2:AD3"/>
@@ -5481,11 +5440,46 @@
     <mergeCell ref="AX1:AX3"/>
     <mergeCell ref="AE1:AR1"/>
     <mergeCell ref="AE2:AR3"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T3"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="AY1:BB2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.70866141732283472" bottom="0.39370078740157483" header="0.82677165354330717" footer="0.19685039370078741"/>

--- a/241_テーブル関連図.xlsx
+++ b/241_テーブル関連図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>システム名</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>EntryTeacherCode(F)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>LeavingTeacherCode(F)</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -303,6 +299,25 @@
   </si>
   <si>
     <t>StudentCode(PF)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>KeyTable</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>カギ表</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>KeyName</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>UseKey</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2658,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2725,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU1" s="56"/>
       <c r="AV1" s="56"/>
@@ -2755,7 +2770,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="73"/>
       <c r="K2" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="80"/>
       <c r="M2" s="80"/>
@@ -2979,7 +2994,7 @@
       <c r="BF5" s="14"/>
       <c r="BG5" s="16"/>
     </row>
-    <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="7"/>
@@ -2988,7 +3003,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -3007,7 +3022,7 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
@@ -3053,7 +3068,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -3072,7 +3087,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
@@ -3088,12 +3103,14 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
+      <c r="AN7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="24"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
@@ -3109,7 +3126,7 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="8"/>
     </row>
-    <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="12"/>
@@ -3118,7 +3135,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3128,7 +3145,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="20"/>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -3139,7 +3156,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -3155,12 +3172,14 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
+      <c r="AN8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="23"/>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
@@ -3185,7 +3204,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3204,7 +3223,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -3220,12 +3239,14 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
+      <c r="AN9" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
+      <c r="AS9" s="20"/>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
@@ -3266,10 +3287,10 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -3285,12 +3306,14 @@
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
+      <c r="AN10" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
+      <c r="AS10" s="20"/>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
@@ -3332,7 +3355,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -3348,12 +3371,12 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="23"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
@@ -3382,7 +3405,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3397,7 +3420,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -3460,7 +3483,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -3523,7 +3546,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
@@ -3590,7 +3613,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -3757,7 +3780,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -3779,7 +3802,7 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -3819,7 +3842,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3877,7 +3900,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -3935,7 +3958,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3954,7 +3977,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3969,7 +3992,7 @@
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AM21" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
@@ -4001,7 +4024,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -4011,7 +4034,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="20"/>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -4037,7 +4060,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AM22" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN22" s="22"/>
       <c r="AO22" s="22"/>
@@ -4069,7 +4092,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -4103,10 +4126,10 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
@@ -4138,7 +4161,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -4156,7 +4179,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y24" s="19" t="s">
         <v>10</v>
@@ -4174,7 +4197,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
       <c r="AM24" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
@@ -4235,7 +4258,7 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -4413,9 +4436,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -4648,7 +4669,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -4690,7 +4711,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -4753,7 +4774,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -4816,7 +4837,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -4879,7 +4900,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -4889,7 +4910,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="20"/>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4944,7 +4965,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
